--- a/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/Книга1.xlsx
+++ b/COM/COM_Application/COM_WindApplication/bin/Debug/newdoc/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="6720"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Страна</t>
-  </si>
-  <si>
-    <t>Город</t>
-  </si>
-  <si>
-    <t>Средняя температура</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Россия</t>
   </si>
   <si>
-    <t>Санкт-Петербург</t>
+    <t>Москва</t>
   </si>
   <si>
-    <t>Апрель</t>
+    <t>Январь</t>
   </si>
 </sst>
 </file>
@@ -366,38 +357,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
